--- a/Model/BayesLSTM/Multivariate/result/Service/CAN.xlsx
+++ b/Model/BayesLSTM/Multivariate/result/Service/CAN.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>2005</v>
       </c>
       <c r="B2" t="n">
-        <v>65.26280975341797</v>
+        <v>63.37387847900391</v>
       </c>
       <c r="C2" t="n">
-        <v>64.13589477539062</v>
+        <v>62.6495361328125</v>
       </c>
       <c r="D2" t="n">
-        <v>66.38972473144531</v>
+        <v>64.09822082519531</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>2006</v>
       </c>
       <c r="B3" t="n">
-        <v>64.96549987792969</v>
+        <v>63.05352783203125</v>
       </c>
       <c r="C3" t="n">
-        <v>62.22476196289062</v>
+        <v>61.94499588012695</v>
       </c>
       <c r="D3" t="n">
-        <v>67.70623779296875</v>
+        <v>64.16206359863281</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>2007</v>
       </c>
       <c r="B4" t="n">
-        <v>65.38531494140625</v>
+        <v>62.7828483581543</v>
       </c>
       <c r="C4" t="n">
-        <v>63.46435165405273</v>
+        <v>61.98712539672852</v>
       </c>
       <c r="D4" t="n">
-        <v>67.30628204345703</v>
+        <v>63.57857131958008</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>2008</v>
       </c>
       <c r="B5" t="n">
-        <v>64.97145080566406</v>
+        <v>62.76987838745117</v>
       </c>
       <c r="C5" t="n">
-        <v>63.64693832397461</v>
+        <v>61.59017944335938</v>
       </c>
       <c r="D5" t="n">
-        <v>66.29596710205078</v>
+        <v>63.94957733154297</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>2009</v>
       </c>
       <c r="B6" t="n">
-        <v>65.08670806884766</v>
+        <v>62.7401123046875</v>
       </c>
       <c r="C6" t="n">
-        <v>63.58634948730469</v>
+        <v>61.5905647277832</v>
       </c>
       <c r="D6" t="n">
-        <v>66.58706665039062</v>
+        <v>63.8896598815918</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>2010</v>
       </c>
       <c r="B7" t="n">
-        <v>65.358642578125</v>
+        <v>63.31613922119141</v>
       </c>
       <c r="C7" t="n">
-        <v>63.57344055175781</v>
+        <v>62.07208633422852</v>
       </c>
       <c r="D7" t="n">
-        <v>67.14384460449219</v>
+        <v>64.56019592285156</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>2011</v>
       </c>
       <c r="B8" t="n">
-        <v>65.19798278808594</v>
+        <v>63.11497116088867</v>
       </c>
       <c r="C8" t="n">
-        <v>63.48067855834961</v>
+        <v>62.18240356445312</v>
       </c>
       <c r="D8" t="n">
-        <v>66.91529083251953</v>
+        <v>64.04753875732422</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>2012</v>
       </c>
       <c r="B9" t="n">
-        <v>65.00471496582031</v>
+        <v>62.7442626953125</v>
       </c>
       <c r="C9" t="n">
-        <v>63.61525726318359</v>
+        <v>61.65795516967773</v>
       </c>
       <c r="D9" t="n">
-        <v>66.39417266845703</v>
+        <v>63.83057022094727</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>2013</v>
       </c>
       <c r="B10" t="n">
-        <v>64.86371612548828</v>
+        <v>62.73319244384766</v>
       </c>
       <c r="C10" t="n">
-        <v>63.50649261474609</v>
+        <v>61.1974983215332</v>
       </c>
       <c r="D10" t="n">
-        <v>66.22093963623047</v>
+        <v>64.26889038085938</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>2014</v>
       </c>
       <c r="B11" t="n">
-        <v>65.53282165527344</v>
+        <v>63.18887329101562</v>
       </c>
       <c r="C11" t="n">
-        <v>63.51875686645508</v>
+        <v>61.92790985107422</v>
       </c>
       <c r="D11" t="n">
-        <v>67.54689025878906</v>
+        <v>64.44983673095703</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>2015</v>
       </c>
       <c r="B12" t="n">
-        <v>65.16651916503906</v>
+        <v>63.04248046875</v>
       </c>
       <c r="C12" t="n">
-        <v>63.65007400512695</v>
+        <v>61.86471557617188</v>
       </c>
       <c r="D12" t="n">
-        <v>66.68296813964844</v>
+        <v>64.22024536132812</v>
       </c>
     </row>
     <row r="13">
@@ -617,83 +617,13 @@
         <v>2016</v>
       </c>
       <c r="B13" t="n">
-        <v>64.94444274902344</v>
+        <v>62.85352325439453</v>
       </c>
       <c r="C13" t="n">
-        <v>63.40573501586914</v>
+        <v>61.86411666870117</v>
       </c>
       <c r="D13" t="n">
-        <v>66.483154296875</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B14" t="n">
-        <v>64.80998229980469</v>
-      </c>
-      <c r="C14" t="n">
-        <v>61.79242706298828</v>
-      </c>
-      <c r="D14" t="n">
-        <v>67.82753753662109</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B15" t="n">
-        <v>65.18307495117188</v>
-      </c>
-      <c r="C15" t="n">
-        <v>63.54972457885742</v>
-      </c>
-      <c r="D15" t="n">
-        <v>66.81642150878906</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B16" t="n">
-        <v>64.96450042724609</v>
-      </c>
-      <c r="C16" t="n">
-        <v>62.65160369873047</v>
-      </c>
-      <c r="D16" t="n">
-        <v>67.27739715576172</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B17" t="n">
-        <v>65.51306915283203</v>
-      </c>
-      <c r="C17" t="n">
-        <v>64.02272796630859</v>
-      </c>
-      <c r="D17" t="n">
-        <v>67.00341033935547</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B18" t="n">
-        <v>65.36933898925781</v>
-      </c>
-      <c r="C18" t="n">
-        <v>62.98594665527344</v>
-      </c>
-      <c r="D18" t="n">
-        <v>67.75273132324219</v>
+        <v>63.84292984008789</v>
       </c>
     </row>
   </sheetData>
@@ -739,72 +669,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>66.22319259643555</v>
+        <v>62.77594757080078</v>
       </c>
       <c r="C2" t="n">
-        <v>65.38218158949734</v>
+        <v>61.98005294799805</v>
       </c>
       <c r="D2" t="n">
-        <v>67.06420360337377</v>
+        <v>63.57184219360352</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>64.47930717468262</v>
+        <v>62.96451568603516</v>
       </c>
       <c r="C3" t="n">
-        <v>61.82463058771373</v>
+        <v>62.07619094848633</v>
       </c>
       <c r="D3" t="n">
-        <v>67.13398376165149</v>
+        <v>63.85284042358398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>63.92519149780274</v>
+        <v>62.61782073974609</v>
       </c>
       <c r="C4" t="n">
-        <v>62.36867396716853</v>
+        <v>61.64363479614258</v>
       </c>
       <c r="D4" t="n">
-        <v>65.48170902843695</v>
+        <v>63.59200668334961</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>65.5289909362793</v>
+        <v>62.80241775512695</v>
       </c>
       <c r="C5" t="n">
-        <v>64.38589620730301</v>
+        <v>61.81487655639648</v>
       </c>
       <c r="D5" t="n">
-        <v>66.67208566525559</v>
+        <v>63.78995895385742</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>65.13595390319824</v>
+        <v>62.68512725830078</v>
       </c>
       <c r="C6" t="n">
-        <v>63.53526697155507</v>
+        <v>61.8117561340332</v>
       </c>
       <c r="D6" t="n">
-        <v>66.73664083484141</v>
+        <v>63.55849838256836</v>
       </c>
     </row>
   </sheetData>
@@ -853,13 +783,13 @@
         <v>2005</v>
       </c>
       <c r="B2" t="n">
-        <v>63.977783203125</v>
+        <v>64.02348327636719</v>
       </c>
       <c r="C2" t="n">
-        <v>63.19735717773438</v>
+        <v>63.00480651855469</v>
       </c>
       <c r="D2" t="n">
-        <v>64.75820922851562</v>
+        <v>65.04216003417969</v>
       </c>
     </row>
     <row r="3">
@@ -867,13 +797,13 @@
         <v>2006</v>
       </c>
       <c r="B3" t="n">
-        <v>64.22663879394531</v>
+        <v>63.74164581298828</v>
       </c>
       <c r="C3" t="n">
-        <v>63.230712890625</v>
+        <v>62.27309036254883</v>
       </c>
       <c r="D3" t="n">
-        <v>65.22256469726562</v>
+        <v>65.21019744873047</v>
       </c>
     </row>
     <row r="4">
@@ -881,13 +811,13 @@
         <v>2007</v>
       </c>
       <c r="B4" t="n">
-        <v>64.31689453125</v>
+        <v>63.71979522705078</v>
       </c>
       <c r="C4" t="n">
-        <v>62.99261856079102</v>
+        <v>62.54294967651367</v>
       </c>
       <c r="D4" t="n">
-        <v>65.64117431640625</v>
+        <v>64.89664459228516</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +825,13 @@
         <v>2008</v>
       </c>
       <c r="B5" t="n">
-        <v>64.22205352783203</v>
+        <v>63.56499481201172</v>
       </c>
       <c r="C5" t="n">
-        <v>62.90354156494141</v>
+        <v>61.60322952270508</v>
       </c>
       <c r="D5" t="n">
-        <v>65.54056549072266</v>
+        <v>65.52676391601562</v>
       </c>
     </row>
     <row r="6">
@@ -909,13 +839,13 @@
         <v>2009</v>
       </c>
       <c r="B6" t="n">
-        <v>63.94123458862305</v>
+        <v>63.71658325195312</v>
       </c>
       <c r="C6" t="n">
-        <v>62.97107315063477</v>
+        <v>62.40521621704102</v>
       </c>
       <c r="D6" t="n">
-        <v>64.91139221191406</v>
+        <v>65.02794647216797</v>
       </c>
     </row>
     <row r="7">
@@ -923,13 +853,13 @@
         <v>2010</v>
       </c>
       <c r="B7" t="n">
-        <v>64.18943786621094</v>
+        <v>63.86106491088867</v>
       </c>
       <c r="C7" t="n">
-        <v>63.12826919555664</v>
+        <v>62.80569458007812</v>
       </c>
       <c r="D7" t="n">
-        <v>65.25060272216797</v>
+        <v>64.91643524169922</v>
       </c>
     </row>
     <row r="8">
@@ -937,13 +867,13 @@
         <v>2011</v>
       </c>
       <c r="B8" t="n">
-        <v>64.37965393066406</v>
+        <v>63.99851226806641</v>
       </c>
       <c r="C8" t="n">
-        <v>63.53266525268555</v>
+        <v>62.29615783691406</v>
       </c>
       <c r="D8" t="n">
-        <v>65.22663879394531</v>
+        <v>65.70086669921875</v>
       </c>
     </row>
     <row r="9">
@@ -951,13 +881,13 @@
         <v>2012</v>
       </c>
       <c r="B9" t="n">
-        <v>64.26524353027344</v>
+        <v>63.87445068359375</v>
       </c>
       <c r="C9" t="n">
-        <v>63.54612731933594</v>
+        <v>62.48592758178711</v>
       </c>
       <c r="D9" t="n">
-        <v>64.98435974121094</v>
+        <v>65.26296997070312</v>
       </c>
     </row>
     <row r="10">
@@ -965,13 +895,13 @@
         <v>2013</v>
       </c>
       <c r="B10" t="n">
-        <v>64.22840118408203</v>
+        <v>63.92861175537109</v>
       </c>
       <c r="C10" t="n">
-        <v>62.49429321289062</v>
+        <v>62.59413528442383</v>
       </c>
       <c r="D10" t="n">
-        <v>65.96250915527344</v>
+        <v>65.26309204101562</v>
       </c>
     </row>
     <row r="11">
@@ -979,13 +909,13 @@
         <v>2014</v>
       </c>
       <c r="B11" t="n">
-        <v>63.86762619018555</v>
+        <v>64.35504150390625</v>
       </c>
       <c r="C11" t="n">
-        <v>62.60178756713867</v>
+        <v>62.86055374145508</v>
       </c>
       <c r="D11" t="n">
-        <v>65.13346862792969</v>
+        <v>65.84952545166016</v>
       </c>
     </row>
     <row r="12">
@@ -993,13 +923,13 @@
         <v>2015</v>
       </c>
       <c r="B12" t="n">
-        <v>64.09007263183594</v>
+        <v>64.12772369384766</v>
       </c>
       <c r="C12" t="n">
-        <v>62.85056304931641</v>
+        <v>62.57277297973633</v>
       </c>
       <c r="D12" t="n">
-        <v>65.32958221435547</v>
+        <v>65.68267822265625</v>
       </c>
     </row>
     <row r="13">
@@ -1007,13 +937,13 @@
         <v>2016</v>
       </c>
       <c r="B13" t="n">
-        <v>64.09290313720703</v>
+        <v>64.05945587158203</v>
       </c>
       <c r="C13" t="n">
-        <v>62.83154678344727</v>
+        <v>62.90150451660156</v>
       </c>
       <c r="D13" t="n">
-        <v>65.35426330566406</v>
+        <v>65.2174072265625</v>
       </c>
     </row>
     <row r="14">
@@ -1021,13 +951,13 @@
         <v>2017</v>
       </c>
       <c r="B14" t="n">
-        <v>64.05391693115234</v>
+        <v>63.8730583190918</v>
       </c>
       <c r="C14" t="n">
-        <v>62.89738464355469</v>
+        <v>62.65084838867188</v>
       </c>
       <c r="D14" t="n">
-        <v>65.21044921875</v>
+        <v>65.09526824951172</v>
       </c>
     </row>
     <row r="15">
@@ -1035,13 +965,13 @@
         <v>2018</v>
       </c>
       <c r="B15" t="n">
-        <v>64.07773590087891</v>
+        <v>63.66093063354492</v>
       </c>
       <c r="C15" t="n">
-        <v>62.64362335205078</v>
+        <v>62.72415924072266</v>
       </c>
       <c r="D15" t="n">
-        <v>65.51184844970703</v>
+        <v>64.59770202636719</v>
       </c>
     </row>
     <row r="16">
@@ -1049,13 +979,13 @@
         <v>2019</v>
       </c>
       <c r="B16" t="n">
-        <v>64.05796813964844</v>
+        <v>63.9254150390625</v>
       </c>
       <c r="C16" t="n">
-        <v>62.82454299926758</v>
+        <v>62.52911376953125</v>
       </c>
       <c r="D16" t="n">
-        <v>65.29139709472656</v>
+        <v>65.32171630859375</v>
       </c>
     </row>
     <row r="17">
@@ -1063,13 +993,13 @@
         <v>2020</v>
       </c>
       <c r="B17" t="n">
-        <v>64.04753112792969</v>
+        <v>63.7318115234375</v>
       </c>
       <c r="C17" t="n">
-        <v>62.42614364624023</v>
+        <v>61.90797805786133</v>
       </c>
       <c r="D17" t="n">
-        <v>65.66891479492188</v>
+        <v>65.55564117431641</v>
       </c>
     </row>
     <row r="18">
@@ -1077,13 +1007,13 @@
         <v>2021</v>
       </c>
       <c r="B18" t="n">
-        <v>64.33673858642578</v>
+        <v>63.78369140625</v>
       </c>
       <c r="C18" t="n">
-        <v>63.23329162597656</v>
+        <v>61.8990478515625</v>
       </c>
       <c r="D18" t="n">
-        <v>65.440185546875</v>
+        <v>65.6683349609375</v>
       </c>
     </row>
   </sheetData>
@@ -1132,13 +1062,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>65.91734237670899</v>
+        <v>65.45719337463379</v>
       </c>
       <c r="C2" t="n">
-        <v>63.71004308487927</v>
+        <v>63.62602346389511</v>
       </c>
       <c r="D2" t="n">
-        <v>68.12464166853871</v>
+        <v>67.28836328537247</v>
       </c>
     </row>
     <row r="3">
@@ -1146,13 +1076,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>65.42734832763672</v>
+        <v>65.73588790893555</v>
       </c>
       <c r="C3" t="n">
-        <v>64.26882025954868</v>
+        <v>64.7273182485293</v>
       </c>
       <c r="D3" t="n">
-        <v>66.58587639572477</v>
+        <v>66.7444575693418</v>
       </c>
     </row>
     <row r="4">
@@ -1160,13 +1090,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>63.62972869873047</v>
+        <v>64.11616516113281</v>
       </c>
       <c r="C4" t="n">
-        <v>62.50681473784505</v>
+        <v>63.45513300234723</v>
       </c>
       <c r="D4" t="n">
-        <v>64.75264265961589</v>
+        <v>64.7771973199184</v>
       </c>
     </row>
     <row r="5">
@@ -1174,13 +1104,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>65.33921813964844</v>
+        <v>64.03482055664062</v>
       </c>
       <c r="C5" t="n">
-        <v>64.59781768969924</v>
+        <v>61.96450528576031</v>
       </c>
       <c r="D5" t="n">
-        <v>66.08061858959763</v>
+        <v>66.10513582752094</v>
       </c>
     </row>
     <row r="6">
@@ -1188,13 +1118,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>63.88193016052246</v>
+        <v>64.14146690368652</v>
       </c>
       <c r="C6" t="n">
-        <v>63.00072409257331</v>
+        <v>62.72096980720924</v>
       </c>
       <c r="D6" t="n">
-        <v>64.76313622847161</v>
+        <v>65.5619640001638</v>
       </c>
     </row>
   </sheetData>
